--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Web_Analysis_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Web_Analysis_Validation_UR.xlsx
@@ -118,7 +118,7 @@
   <x:si>
     <x:t>As a dentist
 I want to view caries regions of interest on a bitewing image
-So that I can see where early stage decay is occuring</x:t>
+So that I can see where early stage decay is ocurring</x:t>
   </x:si>
   <x:si>
     <x:t>ROIIndicatorsAreDisplayed</x:t>
@@ -127,7 +127,7 @@
     <x:t>@UR003-1</x:t>
   </x:si>
   <x:si>
-    <x:t>the deteted caries ROIs are indicated</x:t>
+    <x:t>the detected caries ROIs are indicated</x:t>
   </x:si>
   <x:si>
     <x:t>ROIIndicatorsAreEasilyVisible</x:t>
